--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC.XLSX
@@ -173,10 +173,10 @@
     <t>IQ_DOC</t>
   </si>
   <si>
-    <t>ROBERTO O.SHINAGAWA</t>
+    <t>JOSÉ DE CASTRO DA SILVA JUNIOR</t>
   </si>
   <si>
-    <t>Matr.: 528</t>
+    <t>Matr.: 3345</t>
   </si>
   <si>
     <r>
@@ -6326,7 +6326,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>ROBERTO O.SHINAGAWA</v>
+        <v>JOSÉ DE CASTRO DA SILVA JUNIOR</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6415,7 +6415,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 528</v>
+        <v>Matr.: 3345</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC.XLSX
@@ -133,9 +133,6 @@
     <t>ROBERTO O.SHINAGAWA</t>
   </si>
   <si>
-    <t>ANA MIRA PIRES HOLLANDA</t>
-  </si>
-  <si>
     <t>LUIZ FERNANDO LIMA DIAS</t>
   </si>
   <si>
@@ -148,10 +145,10 @@
     <t> </t>
   </si>
   <si>
-    <t>528</t>
+    <t> </t>
   </si>
   <si>
-    <t>2797</t>
+    <t>528</t>
   </si>
   <si>
     <t>3219</t>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>4202</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3524,19 +3524,19 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v>ANA MIRA PIRES HOLLANDA</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v> </v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
@@ -3551,19 +3551,19 @@
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v>ANA MIRA PIRES HOLLANDA</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v> </v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
@@ -3575,19 +3575,19 @@
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v>ANA MIRA PIRES HOLLANDA</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v> </v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3599,19 +3599,19 @@
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v>ANA MIRA PIRES HOLLANDA</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v> </v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3904,19 +3904,19 @@
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v>2797</v>
+        <v>3219</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3219</v>
+        <v>3516</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>3516</v>
+        <v>4202</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v>4202</v>
+        <v> </v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
@@ -3931,19 +3931,19 @@
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v>2797</v>
+        <v>3219</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3219</v>
+        <v>3516</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>3516</v>
+        <v>4202</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v>4202</v>
+        <v> </v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
@@ -3955,19 +3955,19 @@
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>2797</v>
+        <v>3219</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3219</v>
+        <v>3516</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3516</v>
+        <v>4202</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>4202</v>
+        <v> </v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3979,19 +3979,19 @@
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>2797</v>
+        <v>3219</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3219</v>
+        <v>3516</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3516</v>
+        <v>4202</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>4202</v>
+        <v> </v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6609,19 +6609,19 @@
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>ANA MIRA PIRES HOLLANDA</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v> </v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6634,19 +6634,19 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>ANA MIRA PIRES HOLLANDA</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v> </v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6941,19 +6941,19 @@
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2797</v>
+        <v>3219</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3219</v>
+        <v>3516</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3516</v>
+        <v>4202</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>4202</v>
+        <v> </v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
@@ -6966,19 +6966,19 @@
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2797</v>
+        <v>3219</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3219</v>
+        <v>3516</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3516</v>
+        <v>4202</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>4202</v>
+        <v> </v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC.XLSX
@@ -130,7 +130,7 @@
     <t>Domingo</t>
   </si>
   <si>
-    <t>ROBERTO O.SHINAGAWA</t>
+    <t>JOAO CARLOS DE OLIVEIRA CRUZ</t>
   </si>
   <si>
     <t>LUIZ FERNANDO LIMA DIAS</t>
@@ -148,7 +148,7 @@
     <t> </t>
   </si>
   <si>
-    <t>528</t>
+    <t>2899</t>
   </si>
   <si>
     <t>3219</t>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>G12</f>
-        <v>ROBERTO O.SHINAGAWA</v>
+        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
@@ -3545,7 +3545,7 @@
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
         <f>G12</f>
-        <v>ROBERTO O.SHINAGAWA</v>
+        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
       </c>
       <c r="V12" s="161"/>
       <c r="W12" s="161"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
-        <v>ROBERTO O.SHINAGAWA</v>
+        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
-        <v>ROBERTO O.SHINAGAWA</v>
+        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>G19</f>
-        <v>528</v>
+        <v>2899</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
@@ -3925,7 +3925,7 @@
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
         <f>G19</f>
-        <v>528</v>
+        <v>2899</v>
       </c>
       <c r="V19" s="172"/>
       <c r="W19" s="172"/>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
-        <v>528</v>
+        <v>2899</v>
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
-        <v>528</v>
+        <v>2899</v>
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6605,7 +6605,7 @@
       <c r="F12" s="159"/>
       <c r="G12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>ROBERTO O.SHINAGAWA</v>
+        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>ROBERTO O.SHINAGAWA</v>
+        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="G19" s="258" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>528</v>
+        <v>2899</v>
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>528</v>
+        <v>2899</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC.XLSX
@@ -130,6 +130,9 @@
     <t>Domingo</t>
   </si>
   <si>
+    <t>JUNIOR REGIS F. DA SILVA</t>
+  </si>
+  <si>
     <t>JOAO CARLOS DE OLIVEIRA CRUZ</t>
   </si>
   <si>
@@ -145,7 +148,7 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
+    <t>2661</t>
   </si>
   <si>
     <t>2899</t>
@@ -158,9 +161,6 @@
   </si>
   <si>
     <t>4202</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3519,24 +3519,24 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>G12</f>
-        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
+        <v>JUNIOR REGIS F. DA SILVA</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
@@ -3545,25 +3545,25 @@
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
         <f>G12</f>
-        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
+        <v>JUNIOR REGIS F. DA SILVA</v>
       </c>
       <c r="V12" s="161"/>
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
@@ -3571,23 +3571,23 @@
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
-        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
+        <v>JUNIOR REGIS F. DA SILVA</v>
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3595,23 +3595,23 @@
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
-        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
+        <v>JUNIOR REGIS F. DA SILVA</v>
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3899,24 +3899,24 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>G19</f>
-        <v>2899</v>
+        <v>2661</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v>3219</v>
+        <v>2899</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3516</v>
+        <v>3219</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>4202</v>
+        <v>3516</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>4202</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
@@ -3925,25 +3925,25 @@
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
         <f>G19</f>
-        <v>2899</v>
+        <v>2661</v>
       </c>
       <c r="V19" s="172"/>
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v>3219</v>
+        <v>2899</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3516</v>
+        <v>3219</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>4202</v>
+        <v>3516</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>4202</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
@@ -3951,23 +3951,23 @@
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
-        <v>2899</v>
+        <v>2661</v>
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3219</v>
+        <v>2899</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3516</v>
+        <v>3219</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>4202</v>
+        <v>3516</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>4202</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3975,23 +3975,23 @@
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
-        <v>2899</v>
+        <v>2661</v>
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3219</v>
+        <v>2899</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3516</v>
+        <v>3219</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>4202</v>
+        <v>3516</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>4202</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6605,23 +6605,23 @@
       <c r="F12" s="159"/>
       <c r="G12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
+        <v>JUNIOR REGIS F. DA SILVA</v>
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6629,24 +6629,24 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
+        <v>JUNIOR REGIS F. DA SILVA</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>JOAO CARLOS DE OLIVEIRA CRUZ</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6937,23 +6937,23 @@
       </c>
       <c r="G19" s="258" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>2899</v>
+        <v>2661</v>
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>3219</v>
+        <v>2899</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3516</v>
+        <v>3219</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>4202</v>
+        <v>3516</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>4202</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
@@ -6961,24 +6961,24 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>2899</v>
+        <v>2661</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>3219</v>
+        <v>2899</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3516</v>
+        <v>3219</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>4202</v>
+        <v>3516</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>4202</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC.XLSX
@@ -136,13 +136,13 @@
     <t>JOAO CARLOS DE OLIVEIRA CRUZ</t>
   </si>
   <si>
-    <t>LUIZ FERNANDO LIMA DIAS</t>
-  </si>
-  <si>
     <t>DANIELLE MARQUES DE ARAUJO</t>
   </si>
   <si>
     <t>LUIZ PITICALYN BARBOSA DE SOUZA</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -154,13 +154,13 @@
     <t>2899</t>
   </si>
   <si>
-    <t>3219</t>
-  </si>
-  <si>
     <t>3516</t>
   </si>
   <si>
     <t>4202</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3528,15 +3528,15 @@
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v> </v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
@@ -3555,15 +3555,15 @@
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v> </v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
@@ -3579,15 +3579,15 @@
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v> </v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3603,15 +3603,15 @@
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v> </v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3908,15 +3908,15 @@
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3219</v>
+        <v>3516</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>3516</v>
+        <v>4202</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v>4202</v>
+        <v> </v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
@@ -3935,15 +3935,15 @@
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3219</v>
+        <v>3516</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>3516</v>
+        <v>4202</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v>4202</v>
+        <v> </v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
@@ -3959,15 +3959,15 @@
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3219</v>
+        <v>3516</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3516</v>
+        <v>4202</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>4202</v>
+        <v> </v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3983,15 +3983,15 @@
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3219</v>
+        <v>3516</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3516</v>
+        <v>4202</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>4202</v>
+        <v> </v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6613,15 +6613,15 @@
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v> </v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6638,15 +6638,15 @@
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v> </v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6945,15 +6945,15 @@
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3219</v>
+        <v>3516</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3516</v>
+        <v>4202</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>4202</v>
+        <v> </v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
@@ -6970,15 +6970,15 @@
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3219</v>
+        <v>3516</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3516</v>
+        <v>4202</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>4202</v>
+        <v> </v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC.XLSX
@@ -136,13 +136,13 @@
     <t>JOAO CARLOS DE OLIVEIRA CRUZ</t>
   </si>
   <si>
+    <t>FABIANO RIBEIRO</t>
+  </si>
+  <si>
     <t>DANIELLE MARQUES DE ARAUJO</t>
   </si>
   <si>
     <t>LUIZ PITICALYN BARBOSA DE SOUZA</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -154,13 +154,13 @@
     <t>2899</t>
   </si>
   <si>
+    <t>3370</t>
+  </si>
+  <si>
     <t>3516</t>
   </si>
   <si>
     <t>4202</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3528,15 +3528,15 @@
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>FABIANO RIBEIRO</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
@@ -3555,15 +3555,15 @@
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>FABIANO RIBEIRO</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
@@ -3579,15 +3579,15 @@
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>FABIANO RIBEIRO</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3603,15 +3603,15 @@
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>FABIANO RIBEIRO</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3908,15 +3908,15 @@
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3516</v>
+        <v>3370</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>4202</v>
+        <v>3516</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>4202</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
@@ -3935,15 +3935,15 @@
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3516</v>
+        <v>3370</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>4202</v>
+        <v>3516</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>4202</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
@@ -3959,15 +3959,15 @@
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3516</v>
+        <v>3370</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>4202</v>
+        <v>3516</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>4202</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3983,15 +3983,15 @@
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3516</v>
+        <v>3370</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>4202</v>
+        <v>3516</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>4202</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6613,15 +6613,15 @@
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>FABIANO RIBEIRO</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6638,15 +6638,15 @@
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>DANIELLE MARQUES DE ARAUJO</v>
+        <v>FABIANO RIBEIRO</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
+        <v>DANIELLE MARQUES DE ARAUJO</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>LUIZ PITICALYN BARBOSA DE SOUZA</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6945,15 +6945,15 @@
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3516</v>
+        <v>3370</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>4202</v>
+        <v>3516</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>4202</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
@@ -6970,15 +6970,15 @@
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3516</v>
+        <v>3370</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>4202</v>
+        <v>3516</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>4202</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
